--- a/Ab-Inito_ABMW.xlsx
+++ b/Ab-Inito_ABMW.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fromMainLaptop\ass_codebase\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Questions_Upload" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="179">
   <si>
     <t>Question Text</t>
   </si>
@@ -81,6 +76,9 @@
     <t>MEDIUM</t>
   </si>
   <si>
+    <t>ABMW</t>
+  </si>
+  <si>
     <t>Inputs should be sorted for  join component note without using in memory</t>
   </si>
   <si>
@@ -109,6 +107,9 @@
   </si>
   <si>
     <t>Intermediate file</t>
+  </si>
+  <si>
+    <t>Choice  2</t>
   </si>
   <si>
     <t>Flow buffer is automatically embedded in which version</t>
@@ -166,6 +167,9 @@
     <t>Run program</t>
   </si>
   <si>
+    <t>Choice  3</t>
+  </si>
+  <si>
     <t>What happens when you give unsorted data for join component</t>
   </si>
   <si>
@@ -560,44 +564,388 @@
   <si>
     <t>End Rows:</t>
   </si>
-  <si>
-    <t>ABMW</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -605,35 +953,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -682,7 +1316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -717,7 +1351,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -891,36 +1525,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="3" max="7" width="8.71428571428571" customWidth="1"/>
+    <col min="8" max="8" width="22.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="8.71428571428571" customWidth="1"/>
+    <col min="10" max="10" width="10.4285714285714" customWidth="1"/>
+    <col min="11" max="14" width="8.71428571428571" customWidth="1"/>
+    <col min="15" max="15" width="25.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" customHeight="1">
+    <row r="1" ht="16.5" customHeight="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,1534 +1592,1534 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" customHeight="1">
+    <row r="2" ht="16.5" customHeight="1" spans="1:16">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="N6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="H7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="H9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="H11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="H12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="N12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="H13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="H16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="H17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="H18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="H19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="N19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="H20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="N21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="N22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="H23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="N23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="N24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="N25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="H26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="N26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="H27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="N27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="H28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="N28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="H29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="N29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="H30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="N30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="H31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="N31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="N32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="H33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="N33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="H34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="N34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="H35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="N35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="H36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="N36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="H37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="N37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="H38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="N38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="H39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="N39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="H40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="N40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="N41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="H42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="N42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="H43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="N43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="N44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="N45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A46" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="H46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="3"/>
+      <c r="N46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="2">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10</v>
+      </c>
+      <c r="D47" s="2">
+        <v>20</v>
+      </c>
+      <c r="E47" s="2">
+        <v>25</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="N47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="H48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="N48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="N49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="H50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="N50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A51" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="H3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="H4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="N4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="H5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="N5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="H6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="N6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="H7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="N7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="H8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="N8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="H9" s="5" t="s">
+      <c r="D51" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="H51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="N9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="H10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="H11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="N11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="4">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4">
-        <v>40</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="H12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="N12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="H13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="N13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="H14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="N14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="H15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="N15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="H16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="N16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="H17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="N17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="H18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="N18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="H19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="5"/>
-      <c r="N19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="H20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="N20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="H21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="5"/>
-      <c r="N21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="H22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="5"/>
-      <c r="N22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="H23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="N23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="H24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="N24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="H25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="N25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="H26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="5"/>
-      <c r="N26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="H27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="5"/>
-      <c r="N27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="H28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="5"/>
-      <c r="N28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="H29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="5"/>
-      <c r="N29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="H30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="5"/>
-      <c r="N30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="H31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="5"/>
-      <c r="N31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A32" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="H32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="5"/>
-      <c r="N32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="H33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="5"/>
-      <c r="N33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="H34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="5"/>
-      <c r="N34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="H35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="5"/>
-      <c r="N35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A36" t="s">
-        <v>128</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="H36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="N36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="H37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="5"/>
-      <c r="N37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A38" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="H38" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="5"/>
-      <c r="N38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="H39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="5"/>
-      <c r="N39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A40" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="H40" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" s="5"/>
-      <c r="N40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A41" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" s="4">
-        <v>1</v>
-      </c>
-      <c r="C41" s="4">
-        <v>2</v>
-      </c>
-      <c r="D41" s="4">
-        <v>3</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="H41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="5"/>
-      <c r="N41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="H42" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="5"/>
-      <c r="N42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A43" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="H43" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="N43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A44" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="H44" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="5"/>
-      <c r="N44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A45" t="s">
-        <v>154</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="H45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" s="5"/>
-      <c r="N45" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A46" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="H46" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" s="5"/>
-      <c r="N46" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A47" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" s="4">
-        <v>5</v>
-      </c>
-      <c r="C47" s="4">
-        <v>10</v>
-      </c>
-      <c r="D47" s="4">
-        <v>20</v>
-      </c>
-      <c r="E47" s="4">
-        <v>25</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="H47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="5"/>
-      <c r="N47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="H48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="5"/>
-      <c r="N48" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A49" t="s">
-        <v>165</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="H49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="5"/>
-      <c r="N49" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P49" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A50" t="s">
-        <v>170</v>
-      </c>
-      <c r="B50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C50" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="H50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="5"/>
-      <c r="N50" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P50" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A51" t="s">
-        <v>171</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="H51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" s="5"/>
-      <c r="N51" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P51" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="16.5" customHeight="1">
+      <c r="I51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="N51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" customHeight="1" spans="1:14">
       <c r="A52" t="s">
-        <v>175</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="N52" s="5"/>
-    </row>
-    <row r="53" spans="1:16" ht="16.5" customHeight="1">
-      <c r="I53" s="5"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="1:16" ht="16.5" customHeight="1"/>
-    <row r="55" spans="1:16" ht="16.5" customHeight="1"/>
-    <row r="56" spans="1:16" ht="16.5" customHeight="1"/>
-    <row r="57" spans="1:16" ht="16.5" customHeight="1"/>
-    <row r="58" spans="1:16" ht="16.5" customHeight="1"/>
-    <row r="59" spans="1:16" ht="16.5" customHeight="1"/>
-    <row r="60" spans="1:16" ht="16.5" customHeight="1"/>
-    <row r="61" spans="1:16" ht="16.5" customHeight="1"/>
-    <row r="62" spans="1:16" ht="16.5" customHeight="1"/>
-    <row r="63" spans="1:16" ht="16.5" customHeight="1"/>
-    <row r="64" spans="1:16" ht="16.5" customHeight="1"/>
+        <v>178</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1" spans="9:11">
+      <c r="I53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1"/>
+    <row r="55" ht="16.5" customHeight="1"/>
+    <row r="56" ht="16.5" customHeight="1"/>
+    <row r="57" ht="16.5" customHeight="1"/>
+    <row r="58" ht="16.5" customHeight="1"/>
+    <row r="59" ht="16.5" customHeight="1"/>
+    <row r="60" ht="16.5" customHeight="1"/>
+    <row r="61" ht="16.5" customHeight="1"/>
+    <row r="62" ht="16.5" customHeight="1"/>
+    <row r="63" ht="16.5" customHeight="1"/>
+    <row r="64" ht="16.5" customHeight="1"/>
     <row r="65" ht="16.5" customHeight="1"/>
     <row r="66" ht="16.5" customHeight="1"/>
     <row r="67" ht="16.5" customHeight="1"/>
@@ -3429,6 +4058,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>